--- a/data/附件2：20家部队用户位置编号及物资日消耗量.xlsx
+++ b/data/附件2：20家部队用户位置编号及物资日消耗量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sishoukui\数学建模竞赛\2021年数模集训\校内赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024MCM_Pre\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB141A-F58C-4DD2-BB37-9EABA0950BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75A6D2-B7DE-4B94-A108-560823CF198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -88,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,7 +409,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -442,7 +451,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>125</v>
       </c>
       <c r="C2">
@@ -451,7 +460,7 @@
       <c r="D2">
         <v>73</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>31</v>
       </c>
       <c r="F2">
@@ -460,10 +469,10 @@
       <c r="G2">
         <v>150</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>85</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>79</v>
       </c>
     </row>
@@ -492,7 +501,7 @@
       <c r="H3">
         <v>15570</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>38759</v>
       </c>
     </row>
